--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_4_7.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_4_7.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_5</t>
+          <t>model_4_7_12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9916686670959014</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8193424423980237</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9863854068696014</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9322350276080767</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9727759041409227</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05571166149196765</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>1.20805791953598</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03979881456369778</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1266376203807371</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08321821747221742</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4367877319687515</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M2" t="n">
-        <v>0.236033178794778</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N2" t="n">
-        <v>1.005404107829686</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2460815998721095</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P2" t="n">
-        <v>127.7751315828986</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q2" t="n">
-        <v>202.1265568998588</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_6</t>
+          <t>model_4_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9918300005189943</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8193023954222723</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.985765126905344</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9182695285650667</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9682103855768902</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05463282414887381</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>1.208325713847228</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04161204592791221</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1527360234909408</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09717402774785704</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4181399222317982</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2337366555525124</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005299459122815</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2436873088809621</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P3" t="n">
-        <v>127.8142408039534</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q3" t="n">
-        <v>202.1656661209137</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_4</t>
+          <t>model_4_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9912608931745679</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8191549853968285</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9864668221623611</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9459113225508311</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F4" t="n">
-        <v>0.976995360064821</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05843844758155114</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>1.209311445366131</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03956081757707031</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1010796752352899</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07032024640618008</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4576072417539176</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2417404549957477</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N4" t="n">
-        <v>1.005668609832713</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O4" t="n">
-        <v>0.252031846636645</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P4" t="n">
-        <v>127.6795625135309</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q4" t="n">
-        <v>202.0309878304911</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_7</t>
+          <t>model_4_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9918065787398249</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.819096090256656</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D5" t="n">
-        <v>0.984758739581855</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9043166565958085</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9634641194428913</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05478944569402629</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>1.209705277439653</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04455396435934603</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1788108294164067</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1116823445479701</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4013879735258185</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2340714542485399</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005314651628222</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2440363606506084</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P5" t="n">
-        <v>127.8085154008033</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q5" t="n">
-        <v>202.1599407177636</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_8</t>
+          <t>model_4_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9916477451491383</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8187717869329763</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9834871740661589</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8906132201577651</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9586672711940226</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05585156664630921</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>1.211873895258379</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04827106406846518</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2044194959634226</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1263452800159439</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3863040761376315</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2363293605253254</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00541767882218</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2463903906721069</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P6" t="n">
-        <v>127.7701154057938</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q6" t="n">
-        <v>202.121540722754</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_3</t>
+          <t>model_4_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9905301431207472</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8186627827443511</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9858166890730309</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9589261872600682</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9806628226938062</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0633249765562455</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>1.212602806769633</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04146131699090923</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07675779568337762</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05910960035901842</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4809620454863275</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2516445440621463</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N7" t="n">
-        <v>1.006142609867623</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2623575732788909</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P7" t="n">
-        <v>127.5189509066154</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q7" t="n">
-        <v>201.8703762235757</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_9</t>
+          <t>model_4_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9913923841028889</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.818367208745123</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9820444260051534</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8773353096233149</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9539186675886021</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05755916713840852</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>1.214579311463464</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05248857258980965</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2292329494978848</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1408607419644616</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3726986294630483</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M8" t="n">
-        <v>0.239914916456665</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N8" t="n">
-        <v>1.005583318419748</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2501285911425677</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P8" t="n">
-        <v>127.709883733037</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q8" t="n">
-        <v>202.0613090499973</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_10</t>
+          <t>model_4_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9910712036979766</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8179116005440397</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9805030802977365</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8646121223634524</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9492924861361789</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05970690198495653</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>1.217625965601992</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05699430635654779</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2530097489471461</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1550019856688078</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3604101759361296</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2443499580211884</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N9" t="n">
-        <v>1.005791651655366</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2547524416082946</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P9" t="n">
-        <v>127.6366153082555</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.9880406252157</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_2</t>
+          <t>model_4_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9893822745341024</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8177694573095893</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9841950701050339</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9708373227775676</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9835284068870425</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07100077908058751</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>1.218576478065271</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04620170930246391</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05449853983590675</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05035012456918533</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5072732487095</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2664597138041462</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N10" t="n">
-        <v>1.006887173275177</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2778034554684369</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P10" t="n">
-        <v>127.29012885807</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q10" t="n">
-        <v>201.6415541750303</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_11</t>
+          <t>model_4_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.990707767419356</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8174272612188654</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9789182337839124</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8525279251969207</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9448408430988349</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06213720205356373</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>1.220864744899609</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0616272037124575</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2755924184202561</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1686097029023946</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3493048703760024</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2492733480610467</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N11" t="n">
-        <v>1.006027394106364</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O11" t="n">
-        <v>0.259885430554972</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P11" t="n">
-        <v>127.5568208050531</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.9082461220134</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_12</t>
+          <t>model_4_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9903204210486061</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C12" t="n">
-        <v>0.81693113368792</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D12" t="n">
-        <v>0.977331752489474</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8411376741203839</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9406004845927152</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06472738901833418</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>1.224182351983498</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06626487993541773</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2968782574157969</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1815715686756073</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3392570310152304</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M12" t="n">
-        <v>0.254415779813938</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00627864580631</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2652467862738851</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P12" t="n">
-        <v>127.4751416874772</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q12" t="n">
-        <v>201.8265670044374</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_13</t>
+          <t>model_4_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9899228920636607</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8164358732174015</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9757735031499071</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8304680332916601</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9365939737104151</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06738566717111645</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>1.227494161030321</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07082002718920961</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3168174365694768</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1938186124574811</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.33017047258074</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2595874942502363</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N13" t="n">
-        <v>1.006536502445193</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2706386713006614</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P13" t="n">
-        <v>127.3946458738506</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.7460711908109</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_1</t>
+          <t>model_4_7_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9877029064248765</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8163552446370844</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9813062049055644</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9811438077756143</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F14" t="n">
-        <v>0.98529752950461</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08223072135976089</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>1.228033324718161</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05464657498974573</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03523801793834383</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04494229646404477</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5375159824318061</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2867589952551809</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00797649312981</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2989669193561477</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P14" t="n">
-        <v>126.9964526151465</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.3478779321067</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_14</t>
+          <t>model_4_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9895254416532441</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8159506046236774</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9742655501195036</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8205247271010802</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F15" t="n">
-        <v>0.932833442294031</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07004341989566315</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>1.23073915435101</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07522814592276136</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3353992582724275</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2053137498107906</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3219639736528929</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2646571742758226</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N15" t="n">
-        <v>1.006794308116815</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2759241781006214</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P15" t="n">
-        <v>127.3172798900115</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.6687052069718</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_15</t>
+          <t>model_4_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9891356260350874</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8154818827890005</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9728227173354608</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8113000311681146</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9293237813790812</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07265011872921251</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>1.23387349941776</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07944590211044553</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3526381576691587</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2160420298898021</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3149556433738813</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2695368596856699</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N16" t="n">
-        <v>1.007047161490754</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2810116018207072</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P16" t="n">
-        <v>127.2442005094082</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.5956258263685</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_16</t>
+          <t>model_4_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.988758744964946</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8150340782504485</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9714546474697158</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8027739986424391</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9260634299050797</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07517032418062654</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>1.236867970429008</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08344510784325571</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3685714109743572</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.226008224521344</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.308616943693407</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2741720703876063</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N17" t="n">
-        <v>1.007291624887603</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2858441430384339</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P17" t="n">
-        <v>127.175997502338</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.5274228192983</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_17</t>
+          <t>model_4_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.988398497005932</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8146101044152675</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9701670940486712</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7949197892055955</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9230469158668583</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0775793039413422</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>1.239703085417083</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08720894414406975</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3832491767572641</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2352290604506669</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3028860277335199</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2785306158061304</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N18" t="n">
-        <v>1.007525299239395</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2903882407588574</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P18" t="n">
-        <v>127.1129091783021</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.4643344952623</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_0</t>
+          <t>model_4_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9853540772046832</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8142726412407338</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9767859450819155</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9893094911040283</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9856321949021322</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0979373531705572</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>1.241959703219065</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06786040964334625</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01997817691734653</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04391929617872443</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5736375049079656</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3129494418760915</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N19" t="n">
-        <v>1.009500058029395</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O19" t="n">
-        <v>0.326272347511409</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P19" t="n">
-        <v>126.6468545161655</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.9982798331258</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_18</t>
+          <t>model_4_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9880572754192546</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8142115553740975</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9689629482689519</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7877053513786966</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9202658611180002</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07986105426263507</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>1.242368184690536</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09072895933186874</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3967313520837629</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2437301478730228</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2977009428756568</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2825969820479954</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N20" t="n">
-        <v>1.007746632160484</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2946277206301773</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P20" t="n">
-        <v>127.0549339520977</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.4063592690579</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_19</t>
+          <t>model_4_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9877363071747697</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8138390633539239</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9678422022849927</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7810925271778322</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9177085787927552</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08200737039142844</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>1.244859040544605</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09400517634117553</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4090892457157454</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2515472110284604</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.293017625719503</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2863692902380219</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N21" t="n">
-        <v>1.007954827778528</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2985606237896076</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P21" t="n">
-        <v>127.0018923058696</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.3533176228298</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_20</t>
+          <t>model_4_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9874362831298018</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8134927252964043</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9668035760667762</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7750456595839352</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9153635650001034</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08401363256161223</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>1.247175004729979</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09704133701552534</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4203894926695798</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2587154148425526</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2887807522046881</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2898510523727872</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N22" t="n">
-        <v>1.008149437969858</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3021906117466911</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P22" t="n">
-        <v>126.9535524018133</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.3049777187736</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_21</t>
+          <t>model_4_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9871572283775697</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8131720367575175</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9658448377836439</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7695257544505518</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9132178304039863</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08587967297471731</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>1.24931945046615</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09984396554654673</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4307049643084704</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2652744649275086</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.284955971982973</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2930523382857017</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N23" t="n">
-        <v>1.008330446457793</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3055281830284937</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P23" t="n">
-        <v>126.9096162278235</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.2610415447838</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_22</t>
+          <t>model_4_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9868987550263024</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8128761020617634</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9649621592802742</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7644951912944724</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F24" t="n">
-        <v>0.911258022610797</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08760808546480163</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>1.251298367139312</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1024242525766848</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4401059649253736</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2712651766845346</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2814993176918207</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2959866305507761</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N24" t="n">
-        <v>1.008498104847804</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3085873941901147</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P24" t="n">
-        <v>126.8697639709453</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q24" t="n">
-        <v>201.2211892879056</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_23</t>
+          <t>model_4_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9866601825523573</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8126038387505573</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9641518054682763</v>
+        <v>0.9999863541787086</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7599165850084544</v>
+        <v>0.9997085365485114</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9094710122342368</v>
+        <v>0.9999265887788785</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08920342069659826</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>1.253118993155004</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I25" t="n">
-        <v>0.104793116690786</v>
+        <v>5.499201479236515e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4486623589480578</v>
+        <v>4.111101012366088e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2767276838293627</v>
+        <v>2.33051058014487e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2783809135644889</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M25" t="n">
-        <v>0.298669417076135</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N25" t="n">
-        <v>1.008652854560633</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3113843924919918</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P25" t="n">
-        <v>126.8336717830298</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.18509709999</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_24</t>
+          <t>model_4_7_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9864406679121037</v>
+        <v>0.9999874374704952</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8123540376957936</v>
+        <v>0.6759270659973776</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9634098198684972</v>
+        <v>0.9999863538548833</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7557542866413948</v>
+        <v>0.9997085363176547</v>
       </c>
       <c r="F26" t="n">
-        <v>0.907843890738691</v>
+        <v>0.9999265885220546</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09067131610674602</v>
+        <v>7.457660187031733e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>1.254789413958437</v>
+        <v>0.1923836928457777</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1069621236535141</v>
+        <v>5.499331979287496e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4564407663156654</v>
+        <v>4.1111042686091e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2817014449845897</v>
+        <v>2.330518733268925e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2755657773040622</v>
+        <v>0.0004408372501711747</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3011167815096761</v>
+        <v>0.002730871689961235</v>
       </c>
       <c r="N26" t="n">
-        <v>1.008795242435392</v>
+        <v>1.000008148667787</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3139359462962116</v>
+        <v>0.002847130551486603</v>
       </c>
       <c r="P26" t="n">
-        <v>126.8010284441599</v>
+        <v>145.6125376815947</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.1524537611201</v>
+        <v>219.963962998555</v>
       </c>
     </row>
   </sheetData>
